--- a/storage/files/saved/output.xlsx
+++ b/storage/files/saved/output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -39,19 +39,121 @@
     <t>Remarks</t>
   </si>
   <si>
+    <t>01-11-2018</t>
+  </si>
+  <si>
     <t>Working</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>Remark 1</t>
+  </si>
+  <si>
+    <t>02-11-2018</t>
+  </si>
+  <si>
+    <t>03-11-2018</t>
+  </si>
+  <si>
+    <t>04-11-2018</t>
+  </si>
+  <si>
+    <t>05-11-2018</t>
+  </si>
+  <si>
+    <t>06-11-2018</t>
+  </si>
+  <si>
+    <t>07-11-2018</t>
+  </si>
+  <si>
+    <t>08-11-2018</t>
+  </si>
+  <si>
+    <t>09-11-2018</t>
+  </si>
+  <si>
+    <t>10-11-2018</t>
+  </si>
+  <si>
+    <t>11-11-2018</t>
+  </si>
+  <si>
+    <t>12-11-2018</t>
+  </si>
+  <si>
+    <t>13-11-2018</t>
+  </si>
+  <si>
+    <t>14-11-2018</t>
+  </si>
+  <si>
+    <t>15-11-2018</t>
+  </si>
+  <si>
+    <t>16-11-2018</t>
+  </si>
+  <si>
+    <t>17-11-2018</t>
+  </si>
+  <si>
+    <t>18-11-2018</t>
+  </si>
+  <si>
+    <t>19-11-2018</t>
+  </si>
+  <si>
+    <t>20-11-2018</t>
+  </si>
+  <si>
+    <t>21-11-2018</t>
+  </si>
+  <si>
+    <t>22-11-2018</t>
+  </si>
+  <si>
+    <t>23-11-2018</t>
+  </si>
+  <si>
+    <t>24-11-2018</t>
+  </si>
+  <si>
+    <t>25-11-2018</t>
+  </si>
+  <si>
+    <t>26-11-2018</t>
+  </si>
+  <si>
+    <t>27-11-2018</t>
+  </si>
+  <si>
+    <t>28-11-2018</t>
+  </si>
+  <si>
+    <t>29-11-2018</t>
+  </si>
+  <si>
+    <t>30-11-2018</t>
+  </si>
+  <si>
+    <t>Sign</t>
+  </si>
+  <si>
+    <t>Work Types</t>
+  </si>
+  <si>
     <t>Public Holiday</t>
   </si>
   <si>
     <t>Annual Holiday</t>
-  </si>
-  <si>
-    <t>Sign</t>
-  </si>
-  <si>
-    <t>Work Types</t>
   </si>
   <si>
     <t>1/2 Annual Holiday</t>
@@ -61,9 +163,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -194,7 +295,7 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="165" fillId="2" borderId="2" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="14" fillId="2" borderId="2" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -521,10 +622,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:G46"/>
+      <selection activeCell="A6" sqref="A6:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -562,598 +663,941 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="10">
-        <v>43405</v>
+      <c r="A7" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f>(E7-D7)*24</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6">
-        <v>0.35416666666667</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.73958333333333</v>
-      </c>
-      <c r="F7" s="8">
-        <f>(E7-D7)*24</f>
-        <v>9.25</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="10"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="10"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="5"/>
+      <c r="A10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="10"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="10"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="10"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="5"/>
+      <c r="A15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="10"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5"/>
+      <c r="A16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="10"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="5"/>
+      <c r="A18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="8" t="str">
+        <f>(E18-D18)*24</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="10"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="5"/>
+      <c r="A19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="8" t="str">
+        <f>(E19-D19)*24</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="10">
-        <v>43406</v>
+      <c r="A20" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="8">
+      <c r="C20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="8" t="str">
         <f>(E20-D20)*24</f>
         <v>0</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="10">
-        <v>43407</v>
+      <c r="A21" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6">
-        <v>0.35416666666667</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0.72916666666667</v>
-      </c>
-      <c r="F21" s="8">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="8" t="str">
         <f>(E21-D21)*24</f>
-        <v>9</v>
-      </c>
-      <c r="G21" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="10">
-        <v>43408</v>
+      <c r="A22" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="8">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="8" t="str">
         <f>(E22-D22)*24</f>
         <v>0</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="10">
-        <v>43409</v>
+      <c r="A23" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="8">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="8" t="str">
         <f>(E23-D23)*24</f>
         <v>0</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="10">
-        <v>43410</v>
+      <c r="A24" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="8">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="8" t="str">
         <f>(E24-D24)*24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="10">
-        <v>43411</v>
+      <c r="A25" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="8">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="8" t="str">
         <f>(E25-D25)*24</f>
         <v>0</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="10">
-        <v>43412</v>
+      <c r="A26" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="8">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="8" t="str">
         <f>(E26-D26)*24</f>
         <v>0</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="10">
-        <v>43413</v>
+      <c r="A27" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6">
-        <v>0.35416666666667</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0.70833333333333</v>
-      </c>
-      <c r="F27" s="8">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="8" t="str">
         <f>(E27-D27)*24</f>
-        <v>8.5</v>
-      </c>
-      <c r="G27" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="10">
-        <v>43414</v>
+      <c r="A28" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="8">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="8" t="str">
         <f>(E28-D28)*24</f>
         <v>0</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="10">
-        <v>43415</v>
+      <c r="A29" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="8">
+        <v>8</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="8" t="str">
         <f>(E29-D29)*24</f>
         <v>0</v>
       </c>
-      <c r="G29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="10">
-        <v>43416</v>
+      <c r="A30" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="8">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="8" t="str">
         <f>(E30-D30)*24</f>
         <v>0</v>
       </c>
-      <c r="G30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="10">
-        <v>43417</v>
+      <c r="A31" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="8">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="8" t="str">
         <f>(E31-D31)*24</f>
         <v>0</v>
       </c>
-      <c r="G31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="10">
-        <v>43418</v>
+      <c r="A32" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="8">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="8" t="str">
         <f>(E32-D32)*24</f>
         <v>0</v>
       </c>
-      <c r="G32" s="5"/>
+      <c r="G32" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="10">
-        <v>43419</v>
+      <c r="A33" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="8">
+        <v>8</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="8" t="str">
         <f>(E33-D33)*24</f>
         <v>0</v>
       </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="10">
-        <v>43420</v>
+      <c r="A34" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="8">
+        <v>8</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="8" t="str">
         <f>(E34-D34)*24</f>
         <v>0</v>
       </c>
-      <c r="G34" s="5"/>
+      <c r="G34" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="10">
-        <v>43421</v>
+      <c r="A35" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="8">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="8" t="str">
         <f>(E35-D35)*24</f>
         <v>0</v>
       </c>
-      <c r="G35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="10">
-        <v>43422</v>
+      <c r="A36" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="8">
+        <v>8</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="8" t="str">
         <f>(E36-D36)*24</f>
         <v>0</v>
       </c>
-      <c r="G36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="10">
-        <v>43423</v>
+      <c r="A37" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="8">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="8" t="str">
         <f>(E37-D37)*24</f>
         <v>0</v>
       </c>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="10">
-        <v>43424</v>
+      <c r="A38" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="8">
+        <v>8</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="8" t="str">
         <f>(E38-D38)*24</f>
         <v>0</v>
       </c>
-      <c r="G38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="10">
-        <v>43425</v>
+      <c r="A39" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="8">
+        <v>8</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="8" t="str">
         <f>(E39-D39)*24</f>
         <v>0</v>
       </c>
-      <c r="G39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="10">
-        <v>43426</v>
+      <c r="A40" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="8">
+        <v>8</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="8" t="str">
         <f>(E40-D40)*24</f>
         <v>0</v>
       </c>
-      <c r="G40" s="5"/>
+      <c r="G40" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="10">
-        <v>43427</v>
+      <c r="A41" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="8">
+        <v>8</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="8" t="str">
         <f>(E41-D41)*24</f>
         <v>0</v>
       </c>
-      <c r="G41" s="5"/>
+      <c r="G41" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="10">
-        <v>43428</v>
+      <c r="A42" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="8">
+        <v>8</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="8" t="str">
         <f>(E42-D42)*24</f>
         <v>0</v>
       </c>
-      <c r="G42" s="5"/>
+      <c r="G42" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="10">
-        <v>43429</v>
+      <c r="A43" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="8">
+        <v>8</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="8" t="str">
         <f>(E43-D43)*24</f>
         <v>0</v>
       </c>
-      <c r="G43" s="5"/>
+      <c r="G43" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="10">
-        <v>43430</v>
+      <c r="A44" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="8">
+        <v>8</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="8" t="str">
         <f>(E44-D44)*24</f>
         <v>0</v>
       </c>
-      <c r="G44" s="5"/>
+      <c r="G44" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="10">
-        <v>43431</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="8">
-        <f>(E45-D45)*24</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="5"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="10">
-        <v>43432</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="8">
-        <f>(E46-D46)*24</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="5"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="3" t="s">
-        <v>10</v>
+      <c r="A47" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+  </mergeCells>
   <conditionalFormatting sqref="A7:G34">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B7="Annual Holiday"</formula>
@@ -1165,7 +1609,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="B7:B46">
+    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="B7:B44">
       <formula1>Sheet2!$A$2:$A$9</formula1>
     </dataValidation>
   </dataValidations>
@@ -1201,27 +1645,27 @@
   <sheetData>
     <row r="1" spans="1:1" customHeight="1" ht="15.75">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" customHeight="1" ht="16.5">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" customHeight="1" ht="16.5">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1" customHeight="1" ht="16.5">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1" customHeight="1" ht="16.5">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1" customHeight="1" ht="16.5">

--- a/storage/files/saved/output.xlsx
+++ b/storage/files/saved/output.xlsx
@@ -302,7 +302,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="78">
     <dxf>
       <font/>
       <numFmt numFmtId="164" formatCode="General"/>
@@ -322,6 +322,842 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment/>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
       <alignment/>
@@ -702,7 +1538,8 @@
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="8" t="str">
+        <f>(E8-D8)*24</f>
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -725,7 +1562,8 @@
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="8" t="str">
+        <f>(E9-D9)*24</f>
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -748,7 +1586,8 @@
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="8" t="str">
+        <f>(E10-D10)*24</f>
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -771,7 +1610,8 @@
       <c r="E11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="8" t="str">
+        <f>(E11-D11)*24</f>
         <v>0</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -794,7 +1634,8 @@
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="8" t="str">
+        <f>(E12-D12)*24</f>
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -817,7 +1658,8 @@
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="8" t="str">
+        <f>(E13-D13)*24</f>
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -840,7 +1682,8 @@
       <c r="E14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="8" t="str">
+        <f>(E14-D14)*24</f>
         <v>0</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -863,7 +1706,8 @@
       <c r="E15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="8" t="str">
+        <f>(E15-D15)*24</f>
         <v>0</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -886,7 +1730,8 @@
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="8" t="str">
+        <f>(E16-D16)*24</f>
         <v>0</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -909,7 +1754,8 @@
       <c r="E17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="8" t="str">
+        <f>(E17-D17)*24</f>
         <v>0</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -1606,6 +2452,386 @@
   <conditionalFormatting sqref="A7:G34">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$B7="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:G7">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$B7="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:G7">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$B7="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:G8">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$B8="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:G8">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$B8="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:G9">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$B9="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:G9">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$B9="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:G10">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$B10="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:G10">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$B10="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:G11">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$B11="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:G11">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$B11="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$B12="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:G12">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$B12="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:G13">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>$B13="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:G13">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$B13="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:G14">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$B14="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:G14">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>$B14="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:G15">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$B15="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:G15">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>$B15="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:G16">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>$B16="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:G16">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>$B16="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>$B17="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:G17">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>$B17="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:G18">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>$B18="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:G18">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>$B18="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:G19">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>$B19="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:G19">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>$B19="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:G20">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>$B20="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:G20">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>$B20="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:G21">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>$B21="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:G21">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>$B21="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:G22">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>$B22="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:G22">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>$B22="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:G23">
+    <cfRule type="expression" dxfId="34" priority="35">
+      <formula>$B23="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:G23">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>$B23="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:G24">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>$B24="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:G24">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>$B24="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:G25">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>$B25="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:G25">
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>$B25="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:G26">
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>$B26="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:G26">
+    <cfRule type="expression" dxfId="41" priority="42">
+      <formula>$B26="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:G27">
+    <cfRule type="expression" dxfId="42" priority="43">
+      <formula>$B27="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:G27">
+    <cfRule type="expression" dxfId="43" priority="44">
+      <formula>$B27="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:G28">
+    <cfRule type="expression" dxfId="44" priority="45">
+      <formula>$B28="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:G28">
+    <cfRule type="expression" dxfId="45" priority="46">
+      <formula>$B28="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:G29">
+    <cfRule type="expression" dxfId="46" priority="47">
+      <formula>$B29="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:G29">
+    <cfRule type="expression" dxfId="47" priority="48">
+      <formula>$B29="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:G30">
+    <cfRule type="expression" dxfId="48" priority="49">
+      <formula>$B30="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:G30">
+    <cfRule type="expression" dxfId="49" priority="50">
+      <formula>$B30="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:G31">
+    <cfRule type="expression" dxfId="50" priority="51">
+      <formula>$B31="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:G31">
+    <cfRule type="expression" dxfId="51" priority="52">
+      <formula>$B31="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:G32">
+    <cfRule type="expression" dxfId="52" priority="53">
+      <formula>$B32="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:G32">
+    <cfRule type="expression" dxfId="53" priority="54">
+      <formula>$B32="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:G33">
+    <cfRule type="expression" dxfId="54" priority="55">
+      <formula>$B33="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:G33">
+    <cfRule type="expression" dxfId="55" priority="56">
+      <formula>$B33="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:G34">
+    <cfRule type="expression" dxfId="56" priority="57">
+      <formula>$B34="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:G34">
+    <cfRule type="expression" dxfId="57" priority="58">
+      <formula>$B34="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:G35">
+    <cfRule type="expression" dxfId="58" priority="59">
+      <formula>$B35="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:G35">
+    <cfRule type="expression" dxfId="59" priority="60">
+      <formula>$B35="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:G36">
+    <cfRule type="expression" dxfId="60" priority="61">
+      <formula>$B36="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:G36">
+    <cfRule type="expression" dxfId="61" priority="62">
+      <formula>$B36="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:G37">
+    <cfRule type="expression" dxfId="62" priority="63">
+      <formula>$B37="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:G37">
+    <cfRule type="expression" dxfId="63" priority="64">
+      <formula>$B37="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:G38">
+    <cfRule type="expression" dxfId="64" priority="65">
+      <formula>$B38="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:G38">
+    <cfRule type="expression" dxfId="65" priority="66">
+      <formula>$B38="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:G39">
+    <cfRule type="expression" dxfId="66" priority="67">
+      <formula>$B39="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:G39">
+    <cfRule type="expression" dxfId="67" priority="68">
+      <formula>$B39="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:G40">
+    <cfRule type="expression" dxfId="68" priority="69">
+      <formula>$B40="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:G40">
+    <cfRule type="expression" dxfId="69" priority="70">
+      <formula>$B40="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:G41">
+    <cfRule type="expression" dxfId="70" priority="71">
+      <formula>$B41="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:G41">
+    <cfRule type="expression" dxfId="71" priority="72">
+      <formula>$B41="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:G42">
+    <cfRule type="expression" dxfId="72" priority="73">
+      <formula>$B42="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:G42">
+    <cfRule type="expression" dxfId="73" priority="74">
+      <formula>$B42="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:G43">
+    <cfRule type="expression" dxfId="74" priority="75">
+      <formula>$B43="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:G43">
+    <cfRule type="expression" dxfId="75" priority="76">
+      <formula>$B43="Annual Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:G44">
+    <cfRule type="expression" dxfId="76" priority="77">
+      <formula>$B44="Public Holiday"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:G44">
+    <cfRule type="expression" dxfId="77" priority="78">
+      <formula>$B44="Annual Holiday"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
